--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="summary" sheetId="1" r:id="rId1"/>
+    <sheet name="entry sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="each" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -114,8 +114,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +153,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -231,6 +236,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -265,6 +271,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -440,57 +447,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <f>SUM(Sheet3!B:B)</f>
+        <f>SUM(each!B:B)</f>
         <v>665</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
-        <f>SUM(Sheet3!F:F)</f>
+        <f>SUM(each!F:F)</f>
         <v>3583</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <f>SUM(Sheet3!J:J)</f>
+        <f>SUM(each!J:J)</f>
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <f>SUM(Sheet2!B:B)</f>
+        <f>SUM('entry sheet'!B:B)</f>
         <v>4548</v>
       </c>
     </row>
@@ -500,20 +507,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -527,7 +534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>100</v>
       </c>
@@ -538,7 +545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>100</v>
       </c>
@@ -549,7 +556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>99</v>
       </c>
@@ -560,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40598</v>
       </c>
@@ -575,7 +582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40604</v>
       </c>
@@ -589,7 +596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40627</v>
       </c>
@@ -604,7 +611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>40</v>
       </c>
@@ -615,7 +622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>130</v>
       </c>
@@ -626,7 +633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>50</v>
       </c>
@@ -637,7 +644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>40</v>
       </c>
@@ -654,14 +661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
@@ -669,7 +676,7 @@
     <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -680,7 +687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>200</v>
       </c>
@@ -703,7 +710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40598</v>
       </c>
@@ -723,7 +730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40628</v>
       </c>
@@ -743,7 +750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>40</v>
       </c>
@@ -760,7 +767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>30</v>
       </c>
@@ -774,7 +781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>25</v>
       </c>
@@ -788,7 +795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>20</v>
       </c>
